--- a/reports/2026-02/report_2026-02.xlsx
+++ b/reports/2026-02/report_2026-02.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="요약_권역별" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="요약_전월대비" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3개월연속_시도" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3개월연속_시군" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="주요지역_시도" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="주요지역_시군" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="요약_권역별" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="요약_전월대비" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3개월연속_시도" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="3개월연속_시군" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="주요지역_시도" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="주요지역_시군" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,37 +473,373 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>취득자수</t>
+          <t>사업장 성립</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>시군</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>시군</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>시군</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>시군</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>시군</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>시도</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>시도</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>시도</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>시도</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>시도</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>시도</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>전국</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>전국</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>전국</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>전국</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>전국</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>전국</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>피보험자수</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -518,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,17 +912,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>취득자수</t>
+          <t>사업장 성립</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -595,6 +931,336 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gyeonggi_city</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gyeonggi_city</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>gyeonggi_city</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>gyeonggi_city</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>gyeonggi_city</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -609,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,6 +1307,330 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>충청남도</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>충청북도</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>관심</t>
         </is>
       </c>
     </row>
@@ -655,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +1677,492 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>광명시</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>광명시</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>광명시</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>광명시</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>광명시</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>광명시</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>주의</t>
         </is>
       </c>
     </row>
@@ -701,7 +2177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,6 +2210,636 @@
         <is>
           <t>비정상개수</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>광주광역시</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>부산광역시</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>제주특별자치도</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>제주특별자치도</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>경상북도</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>광주광역시</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>제주특별자치도</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>경상남도</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>대구광역시</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>서울특별시</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>인천광역시</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>제주특별자치도</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,17 +2891,1262 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>이천시</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>평택시</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>양평군</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>여주시</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>오산시</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>용인시</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>의왕시</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>의정부시</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>사업장 성립</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>화성시</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>양평군</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>여주시</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>오산시</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>용인시</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>의왕시</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>의정부시</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>이천시</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>사업장 소멸</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>오산시</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>용인시</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>양평군</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>여주시</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>의왕시</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>의정부시</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>이천시</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>사업장수</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>평택시</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>양평군</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>평택시</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>여주시</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>오산시</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>용인시</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>의왕시</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>의정부시</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>상실자수</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>이천시</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>취득자수</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>수원시</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>의왕시</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>양평군</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>여주시</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>오산시</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>용인시</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>의정부시</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>이천시</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>취득자수</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>평택시</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>포천시</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>여주시</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>오산시</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>양평군</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>용인시</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>의왕시</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>의정부시</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>이천시</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>파주시</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/2026-02/report_2026-02.xlsx
+++ b/reports/2026-02/report_2026-02.xlsx
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,39 +1313,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>사업장 성립</t>
+          <t>취득자수</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>주의</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>관심</t>
+          <t>주의</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>사업장 성립</t>
+          <t>피보험자수</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1367,12 +1367,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>사업장 소멸</t>
+          <t>피보험자수</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1386,249 +1386,6 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>사업장 소멸</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>충청북도</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>사업장수</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>충청남도</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>사업장수</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>충청북도</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>상실자수</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>충청남도</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>상실자수</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>충청북도</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>취득자수</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>충청남도</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>취득자수</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>충청북도</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>피보험자수</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>충청남도</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>피보험자수</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>충청북도</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>관심</t>
         </is>
@@ -1645,7 +1402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1683,39 +1440,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>사업장 성립</t>
+          <t>사업장수</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>광명시</t>
+          <t>과천시</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>사업장 성립</t>
+          <t>사업장수</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>광명시</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1737,49 +1494,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>사업장 성립</t>
+          <t>사업장수</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>파주시</t>
+          <t>광주시</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>사업장 소멸</t>
+          <t>사업장수</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>광명시</t>
+          <t>군포시</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1791,12 +1548,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>사업장 소멸</t>
+          <t>사업장수</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>김포시</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1818,12 +1575,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>사업장 소멸</t>
+          <t>사업장수</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>파주시</t>
+          <t>부천시</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1850,22 +1607,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>광명시</t>
+          <t>성남시</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1634,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>수원시</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1904,34 +1661,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>파주시</t>
+          <t>안양시</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>상실자수</t>
+          <t>사업장수</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>광명시</t>
+          <t>용인시</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1941,24 +1698,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>상실자수</t>
+          <t>사업장수</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>하남시</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1980,39 +1737,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>상실자수</t>
+          <t>사업장수</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>파주시</t>
+          <t>화성시</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>주의</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>취득자수</t>
+          <t>상실자수</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>광명시</t>
+          <t>과천시</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2022,24 +1779,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관심</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>취득자수</t>
+          <t>피보험자수</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>광명시</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2061,12 +1818,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>취득자수</t>
+          <t>피보험자수</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>파주시</t>
+          <t>연천군</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2093,7 +1850,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>광명시</t>
+          <t>파주시</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2107,60 +1864,6 @@
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>피보험자수</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>연천군</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>피보험자수</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>파주시</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>주의</t>
         </is>
@@ -2220,17 +1923,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2241,7 +1944,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2262,7 +1965,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2283,7 +1986,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2304,7 +2007,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2346,17 +2049,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>강원특별자치도</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2367,17 +2070,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2388,17 +2091,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2409,17 +2112,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2451,17 +2154,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>강원특별자치도</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2472,17 +2175,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2493,17 +2196,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2514,17 +2217,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2535,17 +2238,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>강원특별자치도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2556,7 +2259,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>강원특별자치도</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2577,7 +2280,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2598,7 +2301,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2619,7 +2322,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2640,14 +2343,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -2661,7 +2364,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2682,17 +2385,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>강원특별자치도</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2703,17 +2406,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2724,17 +2427,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2766,17 +2469,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2787,17 +2490,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>강원특별자치도</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2808,17 +2511,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2829,17 +2532,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2896,7 +2599,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이천시</t>
+          <t>평택시</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2917,7 +2620,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>평택시</t>
+          <t>의정부시</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3064,7 +2767,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>의정부시</t>
+          <t>이천시</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3106,17 +2809,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>화성시</t>
+          <t>양평군</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3127,7 +2830,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>양평군</t>
+          <t>여주시</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3148,7 +2851,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>여주시</t>
+          <t>연천군</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3169,7 +2872,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>오산시</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3190,7 +2893,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>오산시</t>
+          <t>용인시</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3211,7 +2914,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>용인시</t>
+          <t>의왕시</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3232,7 +2935,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>의왕시</t>
+          <t>의정부시</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3253,7 +2956,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>의정부시</t>
+          <t>이천시</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3274,7 +2977,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이천시</t>
+          <t>파주시</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3295,7 +2998,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>파주시</t>
+          <t>평택시</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3547,17 +3250,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>파주시</t>
+          <t>여주시</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3568,17 +3271,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>평택시</t>
+          <t>연천군</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3589,7 +3292,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>여주시</t>
+          <t>오산시</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3610,7 +3313,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>용인시</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3631,7 +3334,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>오산시</t>
+          <t>의왕시</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3652,7 +3355,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>용인시</t>
+          <t>의정부시</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3673,7 +3376,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>의왕시</t>
+          <t>이천시</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3694,7 +3397,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>의정부시</t>
+          <t>파주시</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3715,7 +3418,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>이천시</t>
+          <t>평택시</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3736,14 +3439,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>의왕시</t>
+          <t>포천시</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
         <v>3</v>
@@ -3862,7 +3565,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>의정부시</t>
+          <t>의왕시</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3883,7 +3586,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>이천시</t>
+          <t>의정부시</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3904,7 +3607,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>파주시</t>
+          <t>이천시</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3925,7 +3628,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>평택시</t>
+          <t>파주시</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3946,17 +3649,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>포천시</t>
+          <t>여주시</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -3967,17 +3670,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>여주시</t>
+          <t>오산시</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -3988,17 +3691,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>오산시</t>
+          <t>양평군</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4009,7 +3712,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>양평군</t>
+          <t>연천군</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -4030,7 +3733,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>용인시</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -4051,7 +3754,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>용인시</t>
+          <t>의왕시</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -4072,7 +3775,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>의왕시</t>
+          <t>의정부시</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -4093,7 +3796,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>의정부시</t>
+          <t>이천시</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -4114,7 +3817,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>이천시</t>
+          <t>파주시</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -4135,7 +3838,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>파주시</t>
+          <t>평택시</t>
         </is>
       </c>
       <c r="C61" t="n">

--- a/reports/2026-02/report_2026-02.xlsx
+++ b/reports/2026-02/report_2026-02.xlsx
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>광명시</t>
+          <t>연천군</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>파주시</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1837,33 +1837,6 @@
         </is>
       </c>
       <c r="E16" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>피보험자수</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>파주시</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>주의</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>주의</t>
         </is>
@@ -3233,13 +3206,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3653,13 +3626,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">

--- a/reports/2026-02/report_2026-02.xlsx
+++ b/reports/2026-02/report_2026-02.xlsx
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -543,10 +543,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -624,13 +624,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -1009,10 +1009,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>관심</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>관심</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>주의</t>
         </is>
       </c>
     </row>
@@ -1693,17 +1693,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>주의</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>관심</t>
         </is>
       </c>
     </row>
@@ -1774,17 +1774,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>관심</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>주의</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>관심</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>관심</t>
         </is>
       </c>
     </row>
@@ -3626,13 +3626,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">

--- a/reports/2026-02/report_2026-02.xlsx
+++ b/reports/2026-02/report_2026-02.xlsx
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>광명시</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1823,20 +1823,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>연천군</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>피보험자수</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>파주시</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>주의</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>주의</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>주의</t>
         </is>
@@ -3206,13 +3233,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
